--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/C1qa-Cd93.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/C1qa-Cd93.xlsx
@@ -76,22 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>C1qa</t>
+  </si>
+  <si>
+    <t>Cd93</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>C1qa</t>
-  </si>
-  <si>
-    <t>Cd93</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
 </sst>
 </file>
@@ -528,7 +528,7 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -537,16 +537,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>4.186764</v>
+        <v>0.1161373333333333</v>
       </c>
       <c r="H2">
-        <v>12.560292</v>
+        <v>0.348412</v>
       </c>
       <c r="I2">
-        <v>0.02138564110481286</v>
+        <v>0.0005423317774654872</v>
       </c>
       <c r="J2">
-        <v>0.02138564110481286</v>
+        <v>0.0005423317774654872</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>169.629438</v>
+        <v>209.26237</v>
       </c>
       <c r="N2">
-        <v>508.888314</v>
+        <v>627.78711</v>
       </c>
       <c r="O2">
-        <v>0.7428377317484701</v>
+        <v>0.8127157202241573</v>
       </c>
       <c r="P2">
-        <v>0.7428377317484702</v>
+        <v>0.8127157202241573</v>
       </c>
       <c r="Q2">
-        <v>710.198424358632</v>
+        <v>24.30317361881333</v>
       </c>
       <c r="R2">
-        <v>6391.785819227688</v>
+        <v>218.72856256932</v>
       </c>
       <c r="S2">
-        <v>0.01588606113028603</v>
+        <v>0.0004407615611233109</v>
       </c>
       <c r="T2">
-        <v>0.01588606113028604</v>
+        <v>0.0004407615611233109</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,7 +590,7 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -599,16 +599,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>4.186764</v>
+        <v>0.1161373333333333</v>
       </c>
       <c r="H3">
-        <v>12.560292</v>
+        <v>0.348412</v>
       </c>
       <c r="I3">
-        <v>0.02138564110481286</v>
+        <v>0.0005423317774654872</v>
       </c>
       <c r="J3">
-        <v>0.02138564110481286</v>
+        <v>0.0005423317774654872</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.9848756666666665</v>
+        <v>0.9848756666666668</v>
       </c>
       <c r="N3">
-        <v>2.954626999999999</v>
+        <v>2.954627</v>
       </c>
       <c r="O3">
-        <v>0.004312947180081614</v>
+        <v>0.003824977881910862</v>
       </c>
       <c r="P3">
-        <v>0.004312947180081614</v>
+        <v>0.003824977881910862</v>
       </c>
       <c r="Q3">
-        <v>4.123441985675999</v>
+        <v>0.1143808335915556</v>
       </c>
       <c r="R3">
-        <v>37.110977871084</v>
+        <v>1.029427502324</v>
       </c>
       <c r="S3">
-        <v>9.223514049724008E-05</v>
+        <v>2.074407053462893E-06</v>
       </c>
       <c r="T3">
-        <v>9.223514049724008E-05</v>
+        <v>2.074407053462893E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,7 +652,7 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -661,16 +661,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>4.186764</v>
+        <v>0.1161373333333333</v>
       </c>
       <c r="H4">
-        <v>12.560292</v>
+        <v>0.348412</v>
       </c>
       <c r="I4">
-        <v>0.02138564110481286</v>
+        <v>0.0005423317774654872</v>
       </c>
       <c r="J4">
-        <v>0.02138564110481286</v>
+        <v>0.0005423317774654872</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.118221666666667</v>
+        <v>1.763846666666667</v>
       </c>
       <c r="N4">
-        <v>9.354665000000001</v>
+        <v>5.291539999999999</v>
       </c>
       <c r="O4">
-        <v>0.01365525192599884</v>
+        <v>0.006850280411451801</v>
       </c>
       <c r="P4">
-        <v>0.01365525192599884</v>
+        <v>0.006850280411451801</v>
       </c>
       <c r="Q4">
-        <v>13.05525821802</v>
+        <v>0.2048484482755555</v>
       </c>
       <c r="R4">
-        <v>117.49732396218</v>
+        <v>1.84363603448</v>
       </c>
       <c r="S4">
-        <v>0.0002920263168852158</v>
+        <v>3.715124751679664E-06</v>
       </c>
       <c r="T4">
-        <v>0.0002920263168852158</v>
+        <v>3.715124751679664E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>4.186764</v>
+        <v>0.1161373333333333</v>
       </c>
       <c r="H5">
-        <v>12.560292</v>
+        <v>0.348412</v>
       </c>
       <c r="I5">
-        <v>0.02138564110481286</v>
+        <v>0.0005423317774654872</v>
       </c>
       <c r="J5">
-        <v>0.02138564110481286</v>
+        <v>0.0005423317774654872</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>54.620752</v>
+        <v>45.474231</v>
       </c>
       <c r="N5">
-        <v>163.862256</v>
+        <v>136.422693</v>
       </c>
       <c r="O5">
-        <v>0.2391940691454494</v>
+        <v>0.1766090214824801</v>
       </c>
       <c r="P5">
-        <v>0.2391940691454494</v>
+        <v>0.1766090214824801</v>
       </c>
       <c r="Q5">
-        <v>228.684198126528</v>
+        <v>5.281255923723999</v>
       </c>
       <c r="R5">
-        <v>2058.157783138752</v>
+        <v>47.53130331351599</v>
       </c>
       <c r="S5">
-        <v>0.005115318517144372</v>
+        <v>9.578068453703385E-05</v>
       </c>
       <c r="T5">
-        <v>0.005115318517144372</v>
+        <v>9.578068453703385E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +776,7 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>191.5877736666667</v>
+        <v>214.0283</v>
       </c>
       <c r="H6">
-        <v>574.763321</v>
+        <v>642.0849000000001</v>
       </c>
       <c r="I6">
-        <v>0.9786143588951871</v>
+        <v>0.9994576682225345</v>
       </c>
       <c r="J6">
-        <v>0.9786143588951871</v>
+        <v>0.9994576682225345</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>169.629438</v>
+        <v>209.26237</v>
       </c>
       <c r="N6">
-        <v>508.888314</v>
+        <v>627.78711</v>
       </c>
       <c r="O6">
-        <v>0.7428377317484701</v>
+        <v>0.8127157202241573</v>
       </c>
       <c r="P6">
-        <v>0.7428377317484702</v>
+        <v>0.8127157202241573</v>
       </c>
       <c r="Q6">
-        <v>32498.92637474787</v>
+        <v>44788.06930507101</v>
       </c>
       <c r="R6">
-        <v>292490.3373727308</v>
+        <v>403092.6237456391</v>
       </c>
       <c r="S6">
-        <v>0.7269516706181841</v>
+        <v>0.8122749586630339</v>
       </c>
       <c r="T6">
-        <v>0.7269516706181842</v>
+        <v>0.8122749586630339</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +838,7 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>191.5877736666667</v>
+        <v>214.0283</v>
       </c>
       <c r="H7">
-        <v>574.763321</v>
+        <v>642.0849000000001</v>
       </c>
       <c r="I7">
-        <v>0.9786143588951871</v>
+        <v>0.9994576682225345</v>
       </c>
       <c r="J7">
-        <v>0.9786143588951871</v>
+        <v>0.9994576682225345</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.9848756666666665</v>
+        <v>0.9848756666666668</v>
       </c>
       <c r="N7">
-        <v>2.954626999999999</v>
+        <v>2.954627</v>
       </c>
       <c r="O7">
-        <v>0.004312947180081614</v>
+        <v>0.003824977881910862</v>
       </c>
       <c r="P7">
-        <v>0.004312947180081614</v>
+        <v>0.003824977881910862</v>
       </c>
       <c r="Q7">
-        <v>188.6901363151407</v>
+        <v>210.7912646480334</v>
       </c>
       <c r="R7">
-        <v>1698.211226836267</v>
+        <v>1897.1213818323</v>
       </c>
       <c r="S7">
-        <v>0.004220712039584374</v>
+        <v>0.003822903474857399</v>
       </c>
       <c r="T7">
-        <v>0.004220712039584374</v>
+        <v>0.003822903474857399</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,7 +900,7 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>191.5877736666667</v>
+        <v>214.0283</v>
       </c>
       <c r="H8">
-        <v>574.763321</v>
+        <v>642.0849000000001</v>
       </c>
       <c r="I8">
-        <v>0.9786143588951871</v>
+        <v>0.9994576682225345</v>
       </c>
       <c r="J8">
-        <v>0.9786143588951871</v>
+        <v>0.9994576682225345</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.118221666666667</v>
+        <v>1.763846666666667</v>
       </c>
       <c r="N8">
-        <v>9.354665000000001</v>
+        <v>5.291539999999999</v>
       </c>
       <c r="O8">
-        <v>0.01365525192599884</v>
+        <v>0.006850280411451801</v>
       </c>
       <c r="P8">
-        <v>0.01365525192599884</v>
+        <v>0.006850280411451801</v>
       </c>
       <c r="Q8">
-        <v>597.4131469158294</v>
+        <v>377.5131035273334</v>
       </c>
       <c r="R8">
-        <v>5376.718322242466</v>
+        <v>3397.617931746</v>
       </c>
       <c r="S8">
-        <v>0.01336322560911363</v>
+        <v>0.006846565286700121</v>
       </c>
       <c r="T8">
-        <v>0.01336322560911363</v>
+        <v>0.006846565286700121</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>191.5877736666667</v>
+        <v>214.0283</v>
       </c>
       <c r="H9">
-        <v>574.763321</v>
+        <v>642.0849000000001</v>
       </c>
       <c r="I9">
-        <v>0.9786143588951871</v>
+        <v>0.9994576682225345</v>
       </c>
       <c r="J9">
-        <v>0.9786143588951871</v>
+        <v>0.9994576682225345</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>54.620752</v>
+        <v>45.474231</v>
       </c>
       <c r="N9">
-        <v>163.862256</v>
+        <v>136.422693</v>
       </c>
       <c r="O9">
-        <v>0.2391940691454494</v>
+        <v>0.1766090214824801</v>
       </c>
       <c r="P9">
-        <v>0.2391940691454494</v>
+        <v>0.1766090214824801</v>
       </c>
       <c r="Q9">
-        <v>10464.66827167913</v>
+        <v>9732.772354737301</v>
       </c>
       <c r="R9">
-        <v>94182.01444511217</v>
+        <v>87594.95119263569</v>
       </c>
       <c r="S9">
-        <v>0.234078750628305</v>
+        <v>0.176513240797943</v>
       </c>
       <c r="T9">
-        <v>0.234078750628305</v>
+        <v>0.176513240797943</v>
       </c>
     </row>
   </sheetData>
